--- a/everything.xlsx
+++ b/everything.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="74">
   <si>
     <t>Область</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>Шымкент</t>
+  </si>
+  <si>
+    <t>Абай</t>
+  </si>
+  <si>
+    <t>ВДС Предпринимательства</t>
+  </si>
+  <si>
+    <t>Пассажирооборот</t>
+  </si>
+  <si>
+    <t>Грузооборот</t>
   </si>
 </sst>
 </file>
@@ -566,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M932"/>
+  <dimension ref="A1:M985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A906" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L944" sqref="L944:M944"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38791,7 +38803,2155 @@
         <v>18369</v>
       </c>
     </row>
+    <row r="933" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>70</v>
+      </c>
+      <c r="B933" t="s">
+        <v>3</v>
+      </c>
+      <c r="C933">
+        <v>0</v>
+      </c>
+      <c r="D933">
+        <v>0</v>
+      </c>
+      <c r="E933">
+        <v>0</v>
+      </c>
+      <c r="F933">
+        <v>0</v>
+      </c>
+      <c r="G933">
+        <v>0</v>
+      </c>
+      <c r="H933">
+        <v>0</v>
+      </c>
+      <c r="I933">
+        <v>0</v>
+      </c>
+      <c r="J933">
+        <v>0</v>
+      </c>
+      <c r="K933">
+        <v>0</v>
+      </c>
+      <c r="L933">
+        <v>610198</v>
+      </c>
+      <c r="M933">
+        <v>607589</v>
+      </c>
+    </row>
+    <row r="934" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>70</v>
+      </c>
+      <c r="B934" t="s">
+        <v>4</v>
+      </c>
+      <c r="C934">
+        <v>0</v>
+      </c>
+      <c r="D934">
+        <v>0</v>
+      </c>
+      <c r="E934">
+        <v>0</v>
+      </c>
+      <c r="F934">
+        <v>0</v>
+      </c>
+      <c r="G934">
+        <v>0</v>
+      </c>
+      <c r="H934">
+        <v>0</v>
+      </c>
+      <c r="I934">
+        <v>0</v>
+      </c>
+      <c r="J934">
+        <v>0</v>
+      </c>
+      <c r="K934">
+        <v>0</v>
+      </c>
+      <c r="L934">
+        <v>258941</v>
+      </c>
+      <c r="M934">
+        <v>299142</v>
+      </c>
+    </row>
+    <row r="935" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>70</v>
+      </c>
+      <c r="B935" t="s">
+        <v>5</v>
+      </c>
+      <c r="C935">
+        <v>0</v>
+      </c>
+      <c r="D935">
+        <v>0</v>
+      </c>
+      <c r="E935">
+        <v>0</v>
+      </c>
+      <c r="F935">
+        <v>0</v>
+      </c>
+      <c r="G935">
+        <v>0</v>
+      </c>
+      <c r="H935">
+        <v>0</v>
+      </c>
+      <c r="I935">
+        <v>0</v>
+      </c>
+      <c r="J935">
+        <v>0</v>
+      </c>
+      <c r="K935">
+        <v>0</v>
+      </c>
+      <c r="L935">
+        <v>5</v>
+      </c>
+      <c r="M935">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="936" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>70</v>
+      </c>
+      <c r="B936" t="s">
+        <v>6</v>
+      </c>
+      <c r="C936">
+        <v>0</v>
+      </c>
+      <c r="D936">
+        <v>0</v>
+      </c>
+      <c r="E936">
+        <v>0</v>
+      </c>
+      <c r="F936">
+        <v>0</v>
+      </c>
+      <c r="G936">
+        <v>0</v>
+      </c>
+      <c r="H936">
+        <v>0</v>
+      </c>
+      <c r="I936">
+        <v>0</v>
+      </c>
+      <c r="J936">
+        <v>0</v>
+      </c>
+      <c r="K936">
+        <v>0</v>
+      </c>
+      <c r="L936">
+        <v>-7063</v>
+      </c>
+      <c r="M936">
+        <v>-7141</v>
+      </c>
+    </row>
+    <row r="937" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>70</v>
+      </c>
+      <c r="B937" t="s">
+        <v>7</v>
+      </c>
+      <c r="C937">
+        <v>0</v>
+      </c>
+      <c r="D937">
+        <v>0</v>
+      </c>
+      <c r="E937">
+        <v>0</v>
+      </c>
+      <c r="F937">
+        <v>0</v>
+      </c>
+      <c r="G937">
+        <v>0</v>
+      </c>
+      <c r="H937">
+        <v>0</v>
+      </c>
+      <c r="I937">
+        <v>0</v>
+      </c>
+      <c r="J937">
+        <v>0</v>
+      </c>
+      <c r="K937">
+        <v>0</v>
+      </c>
+      <c r="L937">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="M937">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="938" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>70</v>
+      </c>
+      <c r="B938" t="s">
+        <v>8</v>
+      </c>
+      <c r="C938">
+        <v>0</v>
+      </c>
+      <c r="D938">
+        <v>0</v>
+      </c>
+      <c r="E938">
+        <v>0</v>
+      </c>
+      <c r="F938">
+        <v>0</v>
+      </c>
+      <c r="G938">
+        <v>0</v>
+      </c>
+      <c r="H938">
+        <v>0</v>
+      </c>
+      <c r="I938">
+        <v>0</v>
+      </c>
+      <c r="J938">
+        <v>0</v>
+      </c>
+      <c r="K938">
+        <v>0</v>
+      </c>
+      <c r="L938">
+        <v>25.7</v>
+      </c>
+      <c r="M938">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="939" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>70</v>
+      </c>
+      <c r="B939" t="s">
+        <v>9</v>
+      </c>
+      <c r="C939">
+        <v>0</v>
+      </c>
+      <c r="D939">
+        <v>0</v>
+      </c>
+      <c r="E939">
+        <v>0</v>
+      </c>
+      <c r="F939">
+        <v>0</v>
+      </c>
+      <c r="G939">
+        <v>0</v>
+      </c>
+      <c r="H939">
+        <v>0</v>
+      </c>
+      <c r="I939">
+        <v>0</v>
+      </c>
+      <c r="J939">
+        <v>0</v>
+      </c>
+      <c r="K939">
+        <v>0</v>
+      </c>
+      <c r="L939">
+        <v>837928</v>
+      </c>
+      <c r="M939">
+        <v>964221.8</v>
+      </c>
+    </row>
+    <row r="940" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>70</v>
+      </c>
+      <c r="B940" t="s">
+        <v>10</v>
+      </c>
+      <c r="C940">
+        <v>0</v>
+      </c>
+      <c r="D940">
+        <v>0</v>
+      </c>
+      <c r="E940">
+        <v>0</v>
+      </c>
+      <c r="F940">
+        <v>0</v>
+      </c>
+      <c r="G940">
+        <v>0</v>
+      </c>
+      <c r="H940">
+        <v>0</v>
+      </c>
+      <c r="I940">
+        <v>0</v>
+      </c>
+      <c r="J940">
+        <v>0</v>
+      </c>
+      <c r="K940">
+        <v>0</v>
+      </c>
+      <c r="L940">
+        <v>2450082</v>
+      </c>
+      <c r="M940">
+        <v>2819362</v>
+      </c>
+    </row>
+    <row r="941" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>70</v>
+      </c>
+      <c r="B941" t="s">
+        <v>11</v>
+      </c>
+      <c r="C941">
+        <v>0</v>
+      </c>
+      <c r="D941">
+        <v>0</v>
+      </c>
+      <c r="E941">
+        <v>0</v>
+      </c>
+      <c r="F941">
+        <v>0</v>
+      </c>
+      <c r="G941">
+        <v>0</v>
+      </c>
+      <c r="H941">
+        <v>0</v>
+      </c>
+      <c r="I941">
+        <v>0</v>
+      </c>
+      <c r="J941">
+        <v>0</v>
+      </c>
+      <c r="K941">
+        <v>0</v>
+      </c>
+      <c r="L941">
+        <v>1611795</v>
+      </c>
+      <c r="M941">
+        <v>1855792</v>
+      </c>
+    </row>
+    <row r="942" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>70</v>
+      </c>
+      <c r="B942" t="s">
+        <v>12</v>
+      </c>
+      <c r="C942">
+        <v>0</v>
+      </c>
+      <c r="D942">
+        <v>0</v>
+      </c>
+      <c r="E942">
+        <v>0</v>
+      </c>
+      <c r="F942">
+        <v>0</v>
+      </c>
+      <c r="G942">
+        <v>0</v>
+      </c>
+      <c r="H942">
+        <v>0</v>
+      </c>
+      <c r="I942">
+        <v>0</v>
+      </c>
+      <c r="J942">
+        <v>0</v>
+      </c>
+      <c r="K942">
+        <v>0</v>
+      </c>
+      <c r="L942">
+        <v>420405</v>
+      </c>
+      <c r="M942">
+        <v>568919</v>
+      </c>
+    </row>
+    <row r="943" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>70</v>
+      </c>
+      <c r="B943" t="s">
+        <v>13</v>
+      </c>
+      <c r="C943">
+        <v>0</v>
+      </c>
+      <c r="D943">
+        <v>0</v>
+      </c>
+      <c r="E943">
+        <v>0</v>
+      </c>
+      <c r="F943">
+        <v>0</v>
+      </c>
+      <c r="G943">
+        <v>0</v>
+      </c>
+      <c r="H943">
+        <v>0</v>
+      </c>
+      <c r="I943">
+        <v>0</v>
+      </c>
+      <c r="J943">
+        <v>0</v>
+      </c>
+      <c r="K943">
+        <v>0</v>
+      </c>
+      <c r="L943">
+        <v>417523</v>
+      </c>
+      <c r="M943">
+        <v>395302.8</v>
+      </c>
+    </row>
+    <row r="944" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>70</v>
+      </c>
+      <c r="B944" t="s">
+        <v>14</v>
+      </c>
+      <c r="C944">
+        <v>0</v>
+      </c>
+      <c r="D944">
+        <v>0</v>
+      </c>
+      <c r="E944">
+        <v>0</v>
+      </c>
+      <c r="F944">
+        <v>0</v>
+      </c>
+      <c r="G944">
+        <v>0</v>
+      </c>
+      <c r="H944">
+        <v>0</v>
+      </c>
+      <c r="I944">
+        <v>0</v>
+      </c>
+      <c r="J944">
+        <v>0</v>
+      </c>
+      <c r="K944">
+        <v>0</v>
+      </c>
+      <c r="L944">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M944">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>70</v>
+      </c>
+      <c r="B945" t="s">
+        <v>15</v>
+      </c>
+      <c r="C945">
+        <v>0</v>
+      </c>
+      <c r="D945">
+        <v>0</v>
+      </c>
+      <c r="E945">
+        <v>0</v>
+      </c>
+      <c r="F945">
+        <v>0</v>
+      </c>
+      <c r="G945">
+        <v>0</v>
+      </c>
+      <c r="H945">
+        <v>0</v>
+      </c>
+      <c r="I945">
+        <v>0</v>
+      </c>
+      <c r="J945">
+        <v>0</v>
+      </c>
+      <c r="K945">
+        <v>0</v>
+      </c>
+      <c r="L945">
+        <v>6.19</v>
+      </c>
+      <c r="M945">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>70</v>
+      </c>
+      <c r="B946" t="s">
+        <v>16</v>
+      </c>
+      <c r="C946">
+        <v>0</v>
+      </c>
+      <c r="D946">
+        <v>0</v>
+      </c>
+      <c r="E946">
+        <v>0</v>
+      </c>
+      <c r="F946">
+        <v>0</v>
+      </c>
+      <c r="G946">
+        <v>0</v>
+      </c>
+      <c r="H946">
+        <v>0</v>
+      </c>
+      <c r="I946">
+        <v>0</v>
+      </c>
+      <c r="J946">
+        <v>0</v>
+      </c>
+      <c r="K946">
+        <v>0</v>
+      </c>
+      <c r="L946">
+        <v>2.1</v>
+      </c>
+      <c r="M946">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>70</v>
+      </c>
+      <c r="B947" t="s">
+        <v>17</v>
+      </c>
+      <c r="C947">
+        <v>0</v>
+      </c>
+      <c r="D947">
+        <v>0</v>
+      </c>
+      <c r="E947">
+        <v>0</v>
+      </c>
+      <c r="F947">
+        <v>0</v>
+      </c>
+      <c r="G947">
+        <v>0</v>
+      </c>
+      <c r="H947">
+        <v>0</v>
+      </c>
+      <c r="I947">
+        <v>0</v>
+      </c>
+      <c r="J947">
+        <v>0</v>
+      </c>
+      <c r="K947">
+        <v>0</v>
+      </c>
+      <c r="L947">
+        <v>2.34</v>
+      </c>
+      <c r="M947">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>70</v>
+      </c>
+      <c r="B948" t="s">
+        <v>18</v>
+      </c>
+      <c r="C948">
+        <v>0</v>
+      </c>
+      <c r="D948">
+        <v>0</v>
+      </c>
+      <c r="E948">
+        <v>0</v>
+      </c>
+      <c r="F948">
+        <v>0</v>
+      </c>
+      <c r="G948">
+        <v>0</v>
+      </c>
+      <c r="H948">
+        <v>0</v>
+      </c>
+      <c r="I948">
+        <v>0</v>
+      </c>
+      <c r="J948">
+        <v>0</v>
+      </c>
+      <c r="K948">
+        <v>0</v>
+      </c>
+      <c r="L948">
+        <v>1.88</v>
+      </c>
+      <c r="M948">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>70</v>
+      </c>
+      <c r="B949" t="s">
+        <v>19</v>
+      </c>
+      <c r="C949">
+        <v>0</v>
+      </c>
+      <c r="D949">
+        <v>0</v>
+      </c>
+      <c r="E949">
+        <v>0</v>
+      </c>
+      <c r="F949">
+        <v>0</v>
+      </c>
+      <c r="G949">
+        <v>0</v>
+      </c>
+      <c r="H949">
+        <v>0</v>
+      </c>
+      <c r="I949">
+        <v>0</v>
+      </c>
+      <c r="J949">
+        <v>0</v>
+      </c>
+      <c r="K949">
+        <v>0</v>
+      </c>
+      <c r="L949">
+        <v>1.59</v>
+      </c>
+      <c r="M949">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>70</v>
+      </c>
+      <c r="B950" t="s">
+        <v>20</v>
+      </c>
+      <c r="C950">
+        <v>0</v>
+      </c>
+      <c r="D950">
+        <v>0</v>
+      </c>
+      <c r="E950">
+        <v>0</v>
+      </c>
+      <c r="F950">
+        <v>0</v>
+      </c>
+      <c r="G950">
+        <v>0</v>
+      </c>
+      <c r="H950">
+        <v>0</v>
+      </c>
+      <c r="I950">
+        <v>0</v>
+      </c>
+      <c r="J950">
+        <v>0</v>
+      </c>
+      <c r="K950">
+        <v>0</v>
+      </c>
+      <c r="L950">
+        <v>2.04</v>
+      </c>
+      <c r="M950">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>70</v>
+      </c>
+      <c r="B951" t="s">
+        <v>21</v>
+      </c>
+      <c r="C951">
+        <v>0</v>
+      </c>
+      <c r="D951">
+        <v>0</v>
+      </c>
+      <c r="E951">
+        <v>0</v>
+      </c>
+      <c r="F951">
+        <v>0</v>
+      </c>
+      <c r="G951">
+        <v>0</v>
+      </c>
+      <c r="H951">
+        <v>0</v>
+      </c>
+      <c r="I951">
+        <v>0</v>
+      </c>
+      <c r="J951">
+        <v>0</v>
+      </c>
+      <c r="K951">
+        <v>0</v>
+      </c>
+      <c r="L951">
+        <v>2.67</v>
+      </c>
+      <c r="M951">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>70</v>
+      </c>
+      <c r="B952" t="s">
+        <v>22</v>
+      </c>
+      <c r="C952">
+        <v>0</v>
+      </c>
+      <c r="D952">
+        <v>0</v>
+      </c>
+      <c r="E952">
+        <v>0</v>
+      </c>
+      <c r="F952">
+        <v>0</v>
+      </c>
+      <c r="G952">
+        <v>0</v>
+      </c>
+      <c r="H952">
+        <v>0</v>
+      </c>
+      <c r="I952">
+        <v>0</v>
+      </c>
+      <c r="J952">
+        <v>0</v>
+      </c>
+      <c r="K952">
+        <v>0</v>
+      </c>
+      <c r="L952">
+        <v>1.25</v>
+      </c>
+      <c r="M952">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>70</v>
+      </c>
+      <c r="B953" t="s">
+        <v>23</v>
+      </c>
+      <c r="C953">
+        <v>0</v>
+      </c>
+      <c r="D953">
+        <v>0</v>
+      </c>
+      <c r="E953">
+        <v>0</v>
+      </c>
+      <c r="F953">
+        <v>0</v>
+      </c>
+      <c r="G953">
+        <v>0</v>
+      </c>
+      <c r="H953">
+        <v>0</v>
+      </c>
+      <c r="I953">
+        <v>0</v>
+      </c>
+      <c r="J953">
+        <v>0</v>
+      </c>
+      <c r="K953">
+        <v>0</v>
+      </c>
+      <c r="L953">
+        <v>2.31</v>
+      </c>
+      <c r="M953">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>70</v>
+      </c>
+      <c r="B954" t="s">
+        <v>24</v>
+      </c>
+      <c r="C954">
+        <v>0</v>
+      </c>
+      <c r="D954">
+        <v>0</v>
+      </c>
+      <c r="E954">
+        <v>0</v>
+      </c>
+      <c r="F954">
+        <v>0</v>
+      </c>
+      <c r="G954">
+        <v>0</v>
+      </c>
+      <c r="H954">
+        <v>0</v>
+      </c>
+      <c r="I954">
+        <v>0</v>
+      </c>
+      <c r="J954">
+        <v>0</v>
+      </c>
+      <c r="K954">
+        <v>0</v>
+      </c>
+      <c r="L954">
+        <v>0.47</v>
+      </c>
+      <c r="M954">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>70</v>
+      </c>
+      <c r="B955" t="s">
+        <v>25</v>
+      </c>
+      <c r="C955">
+        <v>0</v>
+      </c>
+      <c r="D955">
+        <v>0</v>
+      </c>
+      <c r="E955">
+        <v>0</v>
+      </c>
+      <c r="F955">
+        <v>0</v>
+      </c>
+      <c r="G955">
+        <v>0</v>
+      </c>
+      <c r="H955">
+        <v>0</v>
+      </c>
+      <c r="I955">
+        <v>0</v>
+      </c>
+      <c r="J955">
+        <v>0</v>
+      </c>
+      <c r="K955">
+        <v>0</v>
+      </c>
+      <c r="L955">
+        <v>2.08</v>
+      </c>
+      <c r="M955">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>70</v>
+      </c>
+      <c r="B956" t="s">
+        <v>26</v>
+      </c>
+      <c r="C956">
+        <v>0</v>
+      </c>
+      <c r="D956">
+        <v>0</v>
+      </c>
+      <c r="E956">
+        <v>0</v>
+      </c>
+      <c r="F956">
+        <v>0</v>
+      </c>
+      <c r="G956">
+        <v>0</v>
+      </c>
+      <c r="H956">
+        <v>0</v>
+      </c>
+      <c r="I956">
+        <v>0</v>
+      </c>
+      <c r="J956">
+        <v>0</v>
+      </c>
+      <c r="K956">
+        <v>0</v>
+      </c>
+      <c r="L956">
+        <v>2.08</v>
+      </c>
+      <c r="M956">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>70</v>
+      </c>
+      <c r="B957" t="s">
+        <v>27</v>
+      </c>
+      <c r="C957">
+        <v>0</v>
+      </c>
+      <c r="D957">
+        <v>0</v>
+      </c>
+      <c r="E957">
+        <v>0</v>
+      </c>
+      <c r="F957">
+        <v>0</v>
+      </c>
+      <c r="G957">
+        <v>0</v>
+      </c>
+      <c r="H957">
+        <v>0</v>
+      </c>
+      <c r="I957">
+        <v>0</v>
+      </c>
+      <c r="J957">
+        <v>0</v>
+      </c>
+      <c r="K957">
+        <v>0</v>
+      </c>
+      <c r="L957">
+        <v>568751.6</v>
+      </c>
+      <c r="M957">
+        <v>972661.5</v>
+      </c>
+    </row>
+    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>70</v>
+      </c>
+      <c r="B958" t="s">
+        <v>28</v>
+      </c>
+      <c r="C958">
+        <v>0</v>
+      </c>
+      <c r="D958">
+        <v>0</v>
+      </c>
+      <c r="E958">
+        <v>0</v>
+      </c>
+      <c r="F958">
+        <v>0</v>
+      </c>
+      <c r="G958">
+        <v>0</v>
+      </c>
+      <c r="H958">
+        <v>0</v>
+      </c>
+      <c r="I958">
+        <v>0</v>
+      </c>
+      <c r="J958">
+        <v>0</v>
+      </c>
+      <c r="K958">
+        <v>0</v>
+      </c>
+      <c r="L958">
+        <v>356631.7</v>
+      </c>
+      <c r="M958">
+        <v>684217</v>
+      </c>
+    </row>
+    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>70</v>
+      </c>
+      <c r="B959" t="s">
+        <v>29</v>
+      </c>
+      <c r="C959">
+        <v>0</v>
+      </c>
+      <c r="D959">
+        <v>0</v>
+      </c>
+      <c r="E959">
+        <v>0</v>
+      </c>
+      <c r="F959">
+        <v>0</v>
+      </c>
+      <c r="G959">
+        <v>0</v>
+      </c>
+      <c r="H959">
+        <v>0</v>
+      </c>
+      <c r="I959">
+        <v>0</v>
+      </c>
+      <c r="J959">
+        <v>0</v>
+      </c>
+      <c r="K959">
+        <v>0</v>
+      </c>
+      <c r="L959">
+        <v>8071.5</v>
+      </c>
+      <c r="M959">
+        <v>16076.7</v>
+      </c>
+    </row>
+    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>70</v>
+      </c>
+      <c r="B960" t="s">
+        <v>30</v>
+      </c>
+      <c r="C960">
+        <v>0</v>
+      </c>
+      <c r="D960">
+        <v>0</v>
+      </c>
+      <c r="E960">
+        <v>0</v>
+      </c>
+      <c r="F960">
+        <v>0</v>
+      </c>
+      <c r="G960">
+        <v>0</v>
+      </c>
+      <c r="H960">
+        <v>0</v>
+      </c>
+      <c r="I960">
+        <v>0</v>
+      </c>
+      <c r="J960">
+        <v>0</v>
+      </c>
+      <c r="K960">
+        <v>0</v>
+      </c>
+      <c r="L960">
+        <v>0</v>
+      </c>
+      <c r="M960">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>70</v>
+      </c>
+      <c r="B961" t="s">
+        <v>31</v>
+      </c>
+      <c r="C961">
+        <v>0</v>
+      </c>
+      <c r="D961">
+        <v>0</v>
+      </c>
+      <c r="E961">
+        <v>0</v>
+      </c>
+      <c r="F961">
+        <v>0</v>
+      </c>
+      <c r="G961">
+        <v>0</v>
+      </c>
+      <c r="H961">
+        <v>0</v>
+      </c>
+      <c r="I961">
+        <v>0</v>
+      </c>
+      <c r="J961">
+        <v>0</v>
+      </c>
+      <c r="K961">
+        <v>0</v>
+      </c>
+      <c r="L961">
+        <v>320054.09999999998</v>
+      </c>
+      <c r="M961">
+        <v>647053.30000000005</v>
+      </c>
+    </row>
+    <row r="962" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>70</v>
+      </c>
+      <c r="B962" t="s">
+        <v>32</v>
+      </c>
+      <c r="C962">
+        <v>0</v>
+      </c>
+      <c r="D962">
+        <v>0</v>
+      </c>
+      <c r="E962">
+        <v>0</v>
+      </c>
+      <c r="F962">
+        <v>0</v>
+      </c>
+      <c r="G962">
+        <v>0</v>
+      </c>
+      <c r="H962">
+        <v>0</v>
+      </c>
+      <c r="I962">
+        <v>0</v>
+      </c>
+      <c r="J962">
+        <v>0</v>
+      </c>
+      <c r="K962">
+        <v>0</v>
+      </c>
+      <c r="L962">
+        <v>6404.9</v>
+      </c>
+      <c r="M962">
+        <v>8158.7</v>
+      </c>
+    </row>
+    <row r="963" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>70</v>
+      </c>
+      <c r="B963" t="s">
+        <v>33</v>
+      </c>
+      <c r="C963">
+        <v>0</v>
+      </c>
+      <c r="D963">
+        <v>0</v>
+      </c>
+      <c r="E963">
+        <v>0</v>
+      </c>
+      <c r="F963">
+        <v>0</v>
+      </c>
+      <c r="G963">
+        <v>0</v>
+      </c>
+      <c r="H963">
+        <v>0</v>
+      </c>
+      <c r="I963">
+        <v>0</v>
+      </c>
+      <c r="J963">
+        <v>0</v>
+      </c>
+      <c r="K963">
+        <v>0</v>
+      </c>
+      <c r="L963">
+        <v>22101.200000000001</v>
+      </c>
+      <c r="M963">
+        <v>12928.3</v>
+      </c>
+    </row>
+    <row r="964" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>70</v>
+      </c>
+      <c r="B964" t="s">
+        <v>34</v>
+      </c>
+      <c r="C964">
+        <v>0</v>
+      </c>
+      <c r="D964">
+        <v>0</v>
+      </c>
+      <c r="E964">
+        <v>0</v>
+      </c>
+      <c r="F964">
+        <v>0</v>
+      </c>
+      <c r="G964">
+        <v>0</v>
+      </c>
+      <c r="H964">
+        <v>0</v>
+      </c>
+      <c r="I964">
+        <v>0</v>
+      </c>
+      <c r="J964">
+        <v>0</v>
+      </c>
+      <c r="K964">
+        <v>0</v>
+      </c>
+      <c r="L964">
+        <v>183889.1</v>
+      </c>
+      <c r="M964">
+        <v>252757.9</v>
+      </c>
+    </row>
+    <row r="965" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>70</v>
+      </c>
+      <c r="B965" t="s">
+        <v>35</v>
+      </c>
+      <c r="C965">
+        <v>0</v>
+      </c>
+      <c r="D965">
+        <v>0</v>
+      </c>
+      <c r="E965">
+        <v>0</v>
+      </c>
+      <c r="F965">
+        <v>0</v>
+      </c>
+      <c r="G965">
+        <v>0</v>
+      </c>
+      <c r="H965">
+        <v>0</v>
+      </c>
+      <c r="I965">
+        <v>0</v>
+      </c>
+      <c r="J965">
+        <v>0</v>
+      </c>
+      <c r="K965">
+        <v>0</v>
+      </c>
+      <c r="L965">
+        <v>63971.6</v>
+      </c>
+      <c r="M965">
+        <v>62777.5</v>
+      </c>
+    </row>
+    <row r="966" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>70</v>
+      </c>
+      <c r="B966" t="s">
+        <v>36</v>
+      </c>
+      <c r="C966">
+        <v>0</v>
+      </c>
+      <c r="D966">
+        <v>0</v>
+      </c>
+      <c r="E966">
+        <v>0</v>
+      </c>
+      <c r="F966">
+        <v>0</v>
+      </c>
+      <c r="G966">
+        <v>0</v>
+      </c>
+      <c r="H966">
+        <v>0</v>
+      </c>
+      <c r="I966">
+        <v>0</v>
+      </c>
+      <c r="J966">
+        <v>0</v>
+      </c>
+      <c r="K966">
+        <v>0</v>
+      </c>
+      <c r="L966">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="M966">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="967" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>70</v>
+      </c>
+      <c r="B967" t="s">
+        <v>37</v>
+      </c>
+      <c r="C967">
+        <v>0</v>
+      </c>
+      <c r="D967">
+        <v>0</v>
+      </c>
+      <c r="E967">
+        <v>0</v>
+      </c>
+      <c r="F967">
+        <v>0</v>
+      </c>
+      <c r="G967">
+        <v>0</v>
+      </c>
+      <c r="H967">
+        <v>0</v>
+      </c>
+      <c r="I967">
+        <v>0</v>
+      </c>
+      <c r="J967">
+        <v>0</v>
+      </c>
+      <c r="K967">
+        <v>0</v>
+      </c>
+      <c r="L967">
+        <v>0</v>
+      </c>
+      <c r="M967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>70</v>
+      </c>
+      <c r="B968" t="s">
+        <v>38</v>
+      </c>
+      <c r="C968">
+        <v>0</v>
+      </c>
+      <c r="D968">
+        <v>0</v>
+      </c>
+      <c r="E968">
+        <v>0</v>
+      </c>
+      <c r="F968">
+        <v>0</v>
+      </c>
+      <c r="G968">
+        <v>0</v>
+      </c>
+      <c r="H968">
+        <v>0</v>
+      </c>
+      <c r="I968">
+        <v>0</v>
+      </c>
+      <c r="J968">
+        <v>0</v>
+      </c>
+      <c r="K968">
+        <v>0</v>
+      </c>
+      <c r="L968">
+        <v>2101.1999999999998</v>
+      </c>
+      <c r="M968">
+        <v>1907.3</v>
+      </c>
+    </row>
+    <row r="969" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>70</v>
+      </c>
+      <c r="B969" t="s">
+        <v>39</v>
+      </c>
+      <c r="C969">
+        <v>0</v>
+      </c>
+      <c r="D969">
+        <v>0</v>
+      </c>
+      <c r="E969">
+        <v>0</v>
+      </c>
+      <c r="F969">
+        <v>0</v>
+      </c>
+      <c r="G969">
+        <v>0</v>
+      </c>
+      <c r="H969">
+        <v>0</v>
+      </c>
+      <c r="I969">
+        <v>0</v>
+      </c>
+      <c r="J969">
+        <v>0</v>
+      </c>
+      <c r="K969">
+        <v>0</v>
+      </c>
+      <c r="L969">
+        <v>5081.1000000000004</v>
+      </c>
+      <c r="M969">
+        <v>8954</v>
+      </c>
+    </row>
+    <row r="970" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>70</v>
+      </c>
+      <c r="B970" t="s">
+        <v>40</v>
+      </c>
+      <c r="C970">
+        <v>0</v>
+      </c>
+      <c r="D970">
+        <v>0</v>
+      </c>
+      <c r="E970">
+        <v>0</v>
+      </c>
+      <c r="F970">
+        <v>0</v>
+      </c>
+      <c r="G970">
+        <v>0</v>
+      </c>
+      <c r="H970">
+        <v>0</v>
+      </c>
+      <c r="I970">
+        <v>0</v>
+      </c>
+      <c r="J970">
+        <v>0</v>
+      </c>
+      <c r="K970">
+        <v>0</v>
+      </c>
+      <c r="L970">
+        <v>8299.9</v>
+      </c>
+      <c r="M970">
+        <v>4922.8</v>
+      </c>
+    </row>
+    <row r="971" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>70</v>
+      </c>
+      <c r="B971" t="s">
+        <v>41</v>
+      </c>
+      <c r="C971">
+        <v>0</v>
+      </c>
+      <c r="D971">
+        <v>0</v>
+      </c>
+      <c r="E971">
+        <v>0</v>
+      </c>
+      <c r="F971">
+        <v>0</v>
+      </c>
+      <c r="G971">
+        <v>0</v>
+      </c>
+      <c r="H971">
+        <v>0</v>
+      </c>
+      <c r="I971">
+        <v>0</v>
+      </c>
+      <c r="J971">
+        <v>0</v>
+      </c>
+      <c r="K971">
+        <v>0</v>
+      </c>
+      <c r="L971">
+        <v>165.5</v>
+      </c>
+      <c r="M971">
+        <v>268.7</v>
+      </c>
+    </row>
+    <row r="972" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>70</v>
+      </c>
+      <c r="B972" t="s">
+        <v>42</v>
+      </c>
+      <c r="C972">
+        <v>0</v>
+      </c>
+      <c r="D972">
+        <v>0</v>
+      </c>
+      <c r="E972">
+        <v>0</v>
+      </c>
+      <c r="F972">
+        <v>0</v>
+      </c>
+      <c r="G972">
+        <v>0</v>
+      </c>
+      <c r="H972">
+        <v>0</v>
+      </c>
+      <c r="I972">
+        <v>0</v>
+      </c>
+      <c r="J972">
+        <v>0</v>
+      </c>
+      <c r="K972">
+        <v>0</v>
+      </c>
+      <c r="L972">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="M972">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="973" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>70</v>
+      </c>
+      <c r="B973" t="s">
+        <v>43</v>
+      </c>
+      <c r="C973">
+        <v>0</v>
+      </c>
+      <c r="D973">
+        <v>0</v>
+      </c>
+      <c r="E973">
+        <v>0</v>
+      </c>
+      <c r="F973">
+        <v>0</v>
+      </c>
+      <c r="G973">
+        <v>0</v>
+      </c>
+      <c r="H973">
+        <v>0</v>
+      </c>
+      <c r="I973">
+        <v>0</v>
+      </c>
+      <c r="J973">
+        <v>0</v>
+      </c>
+      <c r="K973">
+        <v>0</v>
+      </c>
+      <c r="L973">
+        <v>2642.4</v>
+      </c>
+      <c r="M973">
+        <v>5262.2</v>
+      </c>
+    </row>
+    <row r="974" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>70</v>
+      </c>
+      <c r="B974" t="s">
+        <v>44</v>
+      </c>
+      <c r="C974">
+        <v>0</v>
+      </c>
+      <c r="D974">
+        <v>0</v>
+      </c>
+      <c r="E974">
+        <v>0</v>
+      </c>
+      <c r="F974">
+        <v>0</v>
+      </c>
+      <c r="G974">
+        <v>0</v>
+      </c>
+      <c r="H974">
+        <v>0</v>
+      </c>
+      <c r="I974">
+        <v>0</v>
+      </c>
+      <c r="J974">
+        <v>0</v>
+      </c>
+      <c r="K974">
+        <v>0</v>
+      </c>
+      <c r="L974">
+        <v>958.6</v>
+      </c>
+      <c r="M974">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="975" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>70</v>
+      </c>
+      <c r="B975" t="s">
+        <v>45</v>
+      </c>
+      <c r="C975">
+        <v>0</v>
+      </c>
+      <c r="D975">
+        <v>0</v>
+      </c>
+      <c r="E975">
+        <v>0</v>
+      </c>
+      <c r="F975">
+        <v>0</v>
+      </c>
+      <c r="G975">
+        <v>0</v>
+      </c>
+      <c r="H975">
+        <v>0</v>
+      </c>
+      <c r="I975">
+        <v>0</v>
+      </c>
+      <c r="J975">
+        <v>0</v>
+      </c>
+      <c r="K975">
+        <v>0</v>
+      </c>
+      <c r="L975">
+        <v>2332.1</v>
+      </c>
+      <c r="M975">
+        <v>2688.3</v>
+      </c>
+    </row>
+    <row r="976" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>70</v>
+      </c>
+      <c r="B976" t="s">
+        <v>46</v>
+      </c>
+      <c r="C976">
+        <v>0</v>
+      </c>
+      <c r="D976">
+        <v>0</v>
+      </c>
+      <c r="E976">
+        <v>0</v>
+      </c>
+      <c r="F976">
+        <v>0</v>
+      </c>
+      <c r="G976">
+        <v>0</v>
+      </c>
+      <c r="H976">
+        <v>0</v>
+      </c>
+      <c r="I976">
+        <v>0</v>
+      </c>
+      <c r="J976">
+        <v>0</v>
+      </c>
+      <c r="K976">
+        <v>0</v>
+      </c>
+      <c r="L976">
+        <v>47614.3</v>
+      </c>
+      <c r="M976">
+        <v>98979.9</v>
+      </c>
+    </row>
+    <row r="977" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>70</v>
+      </c>
+      <c r="B977" t="s">
+        <v>47</v>
+      </c>
+      <c r="C977">
+        <v>0</v>
+      </c>
+      <c r="D977">
+        <v>0</v>
+      </c>
+      <c r="E977">
+        <v>0</v>
+      </c>
+      <c r="F977">
+        <v>0</v>
+      </c>
+      <c r="G977">
+        <v>0</v>
+      </c>
+      <c r="H977">
+        <v>0</v>
+      </c>
+      <c r="I977">
+        <v>0</v>
+      </c>
+      <c r="J977">
+        <v>0</v>
+      </c>
+      <c r="K977">
+        <v>0</v>
+      </c>
+      <c r="L977">
+        <v>4307.3</v>
+      </c>
+      <c r="M977">
+        <v>3437.5</v>
+      </c>
+    </row>
+    <row r="978" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>70</v>
+      </c>
+      <c r="B978" t="s">
+        <v>48</v>
+      </c>
+      <c r="C978">
+        <v>0</v>
+      </c>
+      <c r="D978">
+        <v>0</v>
+      </c>
+      <c r="E978">
+        <v>0</v>
+      </c>
+      <c r="F978">
+        <v>0</v>
+      </c>
+      <c r="G978">
+        <v>0</v>
+      </c>
+      <c r="H978">
+        <v>0</v>
+      </c>
+      <c r="I978">
+        <v>0</v>
+      </c>
+      <c r="J978">
+        <v>0</v>
+      </c>
+      <c r="K978">
+        <v>0</v>
+      </c>
+      <c r="L978">
+        <v>44952.1</v>
+      </c>
+      <c r="M978">
+        <v>61066.7</v>
+      </c>
+    </row>
+    <row r="979" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>70</v>
+      </c>
+      <c r="B979" t="s">
+        <v>49</v>
+      </c>
+      <c r="C979">
+        <v>0</v>
+      </c>
+      <c r="D979">
+        <v>0</v>
+      </c>
+      <c r="E979">
+        <v>0</v>
+      </c>
+      <c r="F979">
+        <v>0</v>
+      </c>
+      <c r="G979">
+        <v>0</v>
+      </c>
+      <c r="H979">
+        <v>0</v>
+      </c>
+      <c r="I979">
+        <v>0</v>
+      </c>
+      <c r="J979">
+        <v>0</v>
+      </c>
+      <c r="K979">
+        <v>0</v>
+      </c>
+      <c r="L979">
+        <v>940</v>
+      </c>
+      <c r="M979">
+        <v>1064.4000000000001</v>
+      </c>
+    </row>
+    <row r="980" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>70</v>
+      </c>
+      <c r="B980" t="s">
+        <v>50</v>
+      </c>
+      <c r="C980">
+        <v>0</v>
+      </c>
+      <c r="D980">
+        <v>0</v>
+      </c>
+      <c r="E980">
+        <v>0</v>
+      </c>
+      <c r="F980">
+        <v>0</v>
+      </c>
+      <c r="G980">
+        <v>0</v>
+      </c>
+      <c r="H980">
+        <v>0</v>
+      </c>
+      <c r="I980">
+        <v>0</v>
+      </c>
+      <c r="J980">
+        <v>0</v>
+      </c>
+      <c r="K980">
+        <v>0</v>
+      </c>
+      <c r="L980">
+        <v>23155</v>
+      </c>
+      <c r="M980">
+        <v>28870.5</v>
+      </c>
+    </row>
+    <row r="981" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>70</v>
+      </c>
+      <c r="B981" t="s">
+        <v>51</v>
+      </c>
+      <c r="C981">
+        <v>0</v>
+      </c>
+      <c r="D981">
+        <v>0</v>
+      </c>
+      <c r="E981">
+        <v>0</v>
+      </c>
+      <c r="F981">
+        <v>0</v>
+      </c>
+      <c r="G981">
+        <v>0</v>
+      </c>
+      <c r="H981">
+        <v>0</v>
+      </c>
+      <c r="I981">
+        <v>0</v>
+      </c>
+      <c r="J981">
+        <v>0</v>
+      </c>
+      <c r="K981">
+        <v>0</v>
+      </c>
+      <c r="L981">
+        <v>5075.8</v>
+      </c>
+      <c r="M981">
+        <v>6816.1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>70</v>
+      </c>
+      <c r="B982" t="s">
+        <v>71</v>
+      </c>
+      <c r="C982">
+        <v>0</v>
+      </c>
+      <c r="D982">
+        <v>0</v>
+      </c>
+      <c r="E982">
+        <v>0</v>
+      </c>
+      <c r="F982">
+        <v>0</v>
+      </c>
+      <c r="G982">
+        <v>0</v>
+      </c>
+      <c r="H982">
+        <v>0</v>
+      </c>
+      <c r="I982">
+        <v>0</v>
+      </c>
+      <c r="J982">
+        <v>0</v>
+      </c>
+      <c r="K982">
+        <v>0</v>
+      </c>
+      <c r="L982">
+        <v>372341.5</v>
+      </c>
+      <c r="M982">
+        <v>551829</v>
+      </c>
+    </row>
+    <row r="983" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>70</v>
+      </c>
+      <c r="B983" t="s">
+        <v>72</v>
+      </c>
+      <c r="C983">
+        <v>1655.1</v>
+      </c>
+      <c r="D983">
+        <v>1581</v>
+      </c>
+      <c r="E983">
+        <v>1547.5</v>
+      </c>
+      <c r="F983">
+        <v>1569.2</v>
+      </c>
+      <c r="G983">
+        <v>1523.2</v>
+      </c>
+      <c r="H983">
+        <v>1449.3</v>
+      </c>
+      <c r="I983">
+        <v>1414.7</v>
+      </c>
+      <c r="J983">
+        <v>680.5</v>
+      </c>
+      <c r="K983">
+        <v>1104.5999999999999</v>
+      </c>
+      <c r="L983">
+        <v>1062.0999999999999</v>
+      </c>
+      <c r="M983">
+        <v>1064.9000000000001</v>
+      </c>
+    </row>
+    <row r="984" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>70</v>
+      </c>
+      <c r="B984" t="s">
+        <v>73</v>
+      </c>
+      <c r="C984">
+        <v>12685.6</v>
+      </c>
+      <c r="D984">
+        <v>14905.5</v>
+      </c>
+      <c r="E984">
+        <v>14130.3</v>
+      </c>
+      <c r="F984">
+        <v>12387.9</v>
+      </c>
+      <c r="G984">
+        <v>13493.1</v>
+      </c>
+      <c r="H984">
+        <v>14269.2</v>
+      </c>
+      <c r="I984">
+        <v>14663.1</v>
+      </c>
+      <c r="J984">
+        <v>14690.9</v>
+      </c>
+      <c r="K984">
+        <v>14618.8</v>
+      </c>
+      <c r="L984">
+        <v>14538.7</v>
+      </c>
+      <c r="M984">
+        <v>14034.2</v>
+      </c>
+    </row>
+    <row r="985" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A985"/>
+      <c r="B985"/>
+      <c r="C985"/>
+      <c r="D985"/>
+      <c r="E985"/>
+      <c r="F985"/>
+      <c r="G985"/>
+      <c r="H985"/>
+      <c r="I985"/>
+      <c r="J985"/>
+      <c r="K985"/>
+      <c r="L985"/>
+      <c r="M985"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>